--- a/xlsx/country_comparison/transfer_how_share.xlsx
+++ b/xlsx/country_comparison/transfer_how_share.xlsx
@@ -395,13 +395,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.652406417112299</v>
+        <v>0.65929203539823</v>
       </c>
       <c r="C2" t="n">
-        <v>0.734177215189873</v>
+        <v>0.753653444676409</v>
       </c>
       <c r="D2" t="n">
-        <v>0.819672131147541</v>
+        <v>0.70343137254902</v>
       </c>
     </row>
     <row r="3">
@@ -409,13 +409,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.580310880829016</v>
+        <v>0.597802197802198</v>
       </c>
       <c r="C3" t="n">
-        <v>0.552845528455285</v>
+        <v>0.58148893360161</v>
       </c>
       <c r="D3" t="n">
-        <v>0.734042553191489</v>
+        <v>0.630530973451327</v>
       </c>
     </row>
     <row r="4">
@@ -423,13 +423,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.255707762557078</v>
+        <v>0.344294003868472</v>
       </c>
       <c r="C4" t="n">
-        <v>0.146974063400576</v>
+        <v>0.163027656477438</v>
       </c>
       <c r="D4" t="n">
-        <v>0.351351351351351</v>
+        <v>0.197916666666667</v>
       </c>
     </row>
     <row r="5">
@@ -437,13 +437,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.483870967741936</v>
+        <v>0.526315789473684</v>
       </c>
       <c r="C5" t="n">
-        <v>0.240506329113924</v>
+        <v>0.245065789473684</v>
       </c>
       <c r="D5" t="n">
-        <v>0.399038461538462</v>
+        <v>0.276391554702495</v>
       </c>
     </row>
     <row r="6">
@@ -451,13 +451,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>0.730337078651686</v>
+        <v>0.701834862385321</v>
       </c>
       <c r="C6" t="n">
-        <v>0.472324723247233</v>
+        <v>0.49802371541502</v>
       </c>
       <c r="D6" t="n">
-        <v>0.625668449197861</v>
+        <v>0.471491228070175</v>
       </c>
     </row>
     <row r="7">
@@ -465,13 +465,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>0.776255707762557</v>
+        <v>0.813229571984436</v>
       </c>
       <c r="C7" t="n">
-        <v>0.724264705882353</v>
+        <v>0.716190476190476</v>
       </c>
       <c r="D7" t="n">
-        <v>0.89</v>
+        <v>0.747252747252747</v>
       </c>
     </row>
     <row r="8">
@@ -479,13 +479,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>0.476394849785408</v>
+        <v>0.546666666666667</v>
       </c>
       <c r="C8" t="n">
-        <v>0.322085889570552</v>
+        <v>0.325281803542673</v>
       </c>
       <c r="D8" t="n">
-        <v>0.568627450980392</v>
+        <v>0.4272030651341</v>
       </c>
     </row>
   </sheetData>
